--- a/biology/Microbiologie/Alcanivorax/Alcanivorax.xlsx
+++ b/biology/Microbiologie/Alcanivorax/Alcanivorax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcanivorax est un genre de bactéries de la famille des Alcanivoracaceae.
 La bactérie Alcanivorax borkumensis découverte dans les grandes profondeurs se nourrit d'hydrocarbures et ses enzymes coupent les molécules pour s'en nourrir en produisant de l'eau et du gaz carbonique. Elle fait l'objet de recherches et d'applications contre les marées noires et les sols pollués de résidus pétroliers. Le court-métrage document nature de 2020 Les animaux nettoyeurs, les alliés de la nature de Robin Bicknel présente une séquence à ce sujet qui fut présenté par la chaîne télévisée ARTE le samedi 31 octobre 2020.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Alcanivorax a été créé en 1998 par Michail M. Yakimov (d), Peter N. Golyshin (d), Siegmund Lang (d), Edward R. B. Moore (d), Wolf-Rainer Abraham (d), Heinrich Lünsdorf (d) et Kenneth Nigel Timmis (d), avec comme espèce type Alcanivorax borkumensis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alcanivorax a été créé en 1998 par Michail M. Yakimov (d), Peter N. Golyshin (d), Siegmund Lang (d), Edward R. B. Moore (d), Wolf-Rainer Abraham (d), Heinrich Lünsdorf (d) et Kenneth Nigel Timmis (d), avec comme espèce type Alcanivorax borkumensis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 juin 2021) :
 Alcanivorax balearicus Rivas et al., 2007
 Alcanivorax borkumensis Yakimov et al., 1998
 Alcanivorax dieselolei Liu &amp; Shao, 2005
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Yakimov MM, Peter N. Golyshin, Lang S, Moore ER, Abraham WR, Lünsdorf H et Timmis KN, « Alcanivorax borkumensis gen. nov., sp. nov., a new, hydrocarbon-degrading and surfactant-producing marine bacterium », International Journal of Systematic Bacteriology, vol. 48, no 2,‎ 1er avril 1998 et 1998, p. 339-348 (ISSN 0020-7713, 1465-2102 et 1070-6259, PMID 9731272, DOI 10.1099/00207713-48-2-339, lire en ligne)</t>
         </is>
